--- a/SAO KÊ/16-06-2025/16-06-2025_lich-su-giao-dich-tai-khoan.xlsx
+++ b/SAO KÊ/16-06-2025/16-06-2025_lich-su-giao-dich-tai-khoan.xlsx
@@ -1,37 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\longn\OneDrive\Máy tính\Mother\SAO KÊ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCA5307-8940-4C8A-93BF-D75A285A66E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{6CCA5307-8940-4C8A-93BF-D75A285A66E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF7A9D69-F727-4D07-B8A1-BEB6D5D5DC15}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vietcombank_Account_Statement" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
-    <t>Trân trọng cảm ơn quý khách đã sử dụng dịch vụ Vietcombank!
-Thank you for using Vietcombank’s services!
-__________________</t>
-  </si>
-  <si>
-    <t>VIETCOMBANK – Chung niềm tin vững tương lai
-VIETCOMBANK – Together for the future
-*********</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">SAO KÊ TÀI KHOẢN
 </t>
@@ -49,7 +55,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Ngày thực hiện/ </t>
+      <t xml:space="preserve">Chủ tài khoản/ </t>
     </r>
     <r>
       <rPr>
@@ -59,21 +65,15 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Date:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Chủ tài khoản/ </t>
+      <t xml:space="preserve">Account name: </t>
+    </r>
+  </si>
+  <si>
+    <t>TRAN THANH HOA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ngày thực hiện/ </t>
     </r>
     <r>
       <rPr>
@@ -83,12 +83,24 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">Account name: </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kênh giao dịch/ </t>
+      <t>Date:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>17/06/2025</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Số tài khoản/ </t>
     </r>
     <r>
       <rPr>
@@ -98,7 +110,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Trans.Channel:</t>
+      <t xml:space="preserve">Account number: </t>
     </r>
     <r>
       <rPr>
@@ -107,12 +119,15 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Số tài khoản/ </t>
+      <t xml:space="preserve">   </t>
+    </r>
+  </si>
+  <si>
+    <t>1047279571</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kênh giao dịch/ </t>
     </r>
     <r>
       <rPr>
@@ -122,7 +137,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">Account number: </t>
+      <t>Trans.Channel:</t>
     </r>
     <r>
       <rPr>
@@ -131,8 +146,11 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>DIGIBANK</t>
   </si>
   <si>
     <r>
@@ -159,6 +177,9 @@
     </r>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Số lượng đồng chủ sở hữu tài khoản (nếu có)/ </t>
     </r>
@@ -183,6 +204,9 @@
     </r>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Địa chỉ/ </t>
     </r>
@@ -198,11 +222,17 @@
     </r>
   </si>
   <si>
+    <t>PHU QUOI,LONG HO,VINH LONG HONG DUC</t>
+  </si>
+  <si>
     <t xml:space="preserve">CMND/CCCD/Hộ chiếu số
 ID/Citizen ID/PP No
 </t>
   </si>
   <si>
+    <t>086201007322</t>
+  </si>
+  <si>
     <t>CIF</t>
   </si>
   <si>
@@ -221,6 +251,9 @@
     </r>
   </si>
   <si>
+    <t>VND</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Từ/ </t>
     </r>
@@ -234,6 +267,9 @@
       </rPr>
       <t>From:</t>
     </r>
+  </si>
+  <si>
+    <t>16/06/2025</t>
   </si>
   <si>
     <r>
@@ -267,6 +303,220 @@
     </r>
   </si>
   <si>
+    <t>201,880 VND</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">STT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>No.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ngày/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TNX Date</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ Số CT/ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Doc No</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Số tiền ghi nợ/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Debit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Số tiền ghi có/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Credit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Số dư/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Balance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nội dung chi tiết/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Transactions in detail</t>
+    </r>
+  </si>
+  <si>
+    <t>16/06/2025
+5239 - 73606</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>100,000</t>
+  </si>
+  <si>
+    <t>301,880</t>
+  </si>
+  <si>
+    <t>MBVCB.9877487482.NGUYEN THI HONG CUC chuyen tien.CT tu 1039282561 NGUYEN THI HONG CUC toi 1047279571 TRAN THANH HOA</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>16/06/2025
+5243 - 78745</t>
+  </si>
+  <si>
+    <t>401,880</t>
+  </si>
+  <si>
+    <t>MBVCB.9877668617.Mong bac bot dau.CT tu 1040232174 NGUYEN THI TO UYEN toi 1047279571 TRAN THANH HOA</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>16/06/2025
+5243 - 80095</t>
+  </si>
+  <si>
+    <t>50,000</t>
+  </si>
+  <si>
+    <t>451,880</t>
+  </si>
+  <si>
+    <t>MBVCB.9877726771.HUYNH TAN DAT bao ve h1.CT tu 3938803804 HUYNH TAN DAT toi 1047279571 TRAN THANH HOA</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>16/06/2025
+5285 - 58065</t>
+  </si>
+  <si>
+    <t>201,880</t>
+  </si>
+  <si>
+    <t>250,000</t>
+  </si>
+  <si>
+    <t>MBVCB.9877831503.018150.TRAN THANH HOA chuyen tien.CT tu 1047279571 TRAN THANH HOA toi 7411065146 TRAN THANH HOA tai BIDV</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>16/06/2025
+5387 - 02255</t>
+  </si>
+  <si>
+    <t>200,000</t>
+  </si>
+  <si>
+    <t>450,000</t>
+  </si>
+  <si>
+    <t>020097041506161848092025mun9482783.2255.184809.NGUYEN HOANG HUU NGHI chuyen tien</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>16/06/2025
+5245 - 01215</t>
+  </si>
+  <si>
+    <t>650,000</t>
+  </si>
+  <si>
+    <t>MBVCB.9878484409.MAI XUAN HIEU chuyen tien.CT tu 1042478220 MAI XUAN HIEU toi 1047279571 TRAN THANH HOA</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>16/06/2025
+5241 - 10430</t>
+  </si>
+  <si>
+    <t>850,000</t>
+  </si>
+  <si>
+    <t>MBVCB.9878809756.Tat ca se on thoi,co len nhe..CT tu 0391000291285 VO THI HUYNH NHI toi 1047279571 TRAN THANH HOA</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Tổng số/ </t>
     </r>
@@ -283,6 +533,9 @@
     </r>
   </si>
   <si>
+    <t>648,120 VND</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Số dư cuối kỳ/ </t>
     </r>
@@ -299,6 +552,19 @@
     </r>
   </si>
   <si>
+    <t>850,000 VND</t>
+  </si>
+  <si>
+    <t>Trân trọng cảm ơn quý khách đã sử dụng dịch vụ Vietcombank!
+Thank you for using Vietcombank’s services!
+__________________</t>
+  </si>
+  <si>
+    <t>VIETCOMBANK – Chung niềm tin vững tương lai
+VIETCOMBANK – Together for the future
+*********</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -341,263 +607,13 @@
       </rPr>
       <t xml:space="preserve"> This letter of confirmation of the Joint Stock Commercial Bank for Foreign Trade of Vietnam ensures accurate information at the time of confirmation as requested by the customer. This acknowledgment does not constitute any current or future guarantees of the customer's obligations confirmed to third parties./.</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">STT
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>No.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ngày/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>TNX Date</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">/ Số CT/ </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Doc No</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Số tiền ghi nợ/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Debit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Số tiền ghi có/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Credit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Số dư/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Balance</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nội dung chi tiết/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Transactions in detail</t>
-    </r>
-  </si>
-  <si>
-    <t>DIGIBANK</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>TRAN THANH HOA</t>
-  </si>
-  <si>
-    <t>1047279571</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>PHU QUOI,LONG HO,VINH LONG HONG DUC</t>
-  </si>
-  <si>
-    <t>086201007322</t>
-  </si>
-  <si>
-    <t>VND</t>
-  </si>
-  <si>
-    <t>16/06/2025</t>
-  </si>
-  <si>
-    <t>201,880 VND</t>
-  </si>
-  <si>
-    <t>17/06/2025</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>16/06/2025
-5239 - 73606</t>
-  </si>
-  <si>
-    <t>100,000</t>
-  </si>
-  <si>
-    <t>301,880</t>
-  </si>
-  <si>
-    <t>MBVCB.9877487482.NGUYEN THI HONG CUC chuyen tien.CT tu 1039282561 NGUYEN THI HONG CUC toi 1047279571 TRAN THANH HOA</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>16/06/2025
-5243 - 78745</t>
-  </si>
-  <si>
-    <t>401,880</t>
-  </si>
-  <si>
-    <t>MBVCB.9877668617.Mong bac bot dau.CT tu 1040232174 NGUYEN THI TO UYEN toi 1047279571 TRAN THANH HOA</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>16/06/2025
-5243 - 80095</t>
-  </si>
-  <si>
-    <t>50,000</t>
-  </si>
-  <si>
-    <t>451,880</t>
-  </si>
-  <si>
-    <t>MBVCB.9877726771.HUYNH TAN DAT bao ve h1.CT tu 3938803804 HUYNH TAN DAT toi 1047279571 TRAN THANH HOA</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>16/06/2025
-5285 - 58065</t>
-  </si>
-  <si>
-    <t>201,880</t>
-  </si>
-  <si>
-    <t>250,000</t>
-  </si>
-  <si>
-    <t>MBVCB.9877831503.018150.TRAN THANH HOA chuyen tien.CT tu 1047279571 TRAN THANH HOA toi 7411065146 TRAN THANH HOA tai BIDV</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>16/06/2025
-5387 - 02255</t>
-  </si>
-  <si>
-    <t>200,000</t>
-  </si>
-  <si>
-    <t>450,000</t>
-  </si>
-  <si>
-    <t>020097041506161848092025mun9482783.2255.184809.NGUYEN HOANG HUU NGHI chuyen tien</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>16/06/2025
-5245 - 01215</t>
-  </si>
-  <si>
-    <t>650,000</t>
-  </si>
-  <si>
-    <t>MBVCB.9878484409.MAI XUAN HIEU chuyen tien.CT tu 1042478220 MAI XUAN HIEU toi 1047279571 TRAN THANH HOA</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>16/06/2025
-5241 - 10430</t>
-  </si>
-  <si>
-    <t>850,000</t>
-  </si>
-  <si>
-    <t>MBVCB.9878809756.Tat ca se on thoi,co len nhe..CT tu 0391000291285 VO THI HUYNH NHI toi 1047279571 TRAN THANH HOA</t>
-  </si>
-  <si>
-    <t>648,120 VND</t>
-  </si>
-  <si>
-    <t>850,000 VND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1338,7 +1354,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>577851</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>60802</xdr:rowOff>
+      <xdr:rowOff>32227</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1656,29 +1672,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="2"/>
+    <col min="1" max="1" width="4.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="18.75">
       <c r="A1"/>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="1"/>
       <c r="E1" s="20" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
@@ -1702,7 +1718,7 @@
       <c r="Y1"/>
       <c r="Z1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26">
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="H2"/>
@@ -1725,20 +1741,20 @@
       <c r="Y2"/>
       <c r="Z2"/>
     </row>
-    <row r="3" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="24.75">
       <c r="B3" s="18" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="6" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="6" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -1760,20 +1776,20 @@
       <c r="Y3"/>
       <c r="Z3"/>
     </row>
-    <row r="4" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26">
       <c r="B4" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="6" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="5" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -1795,20 +1811,20 @@
       <c r="Y4"/>
       <c r="Z4"/>
     </row>
-    <row r="5" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26">
       <c r="B5" s="18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="5" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="5" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -1830,13 +1846,13 @@
       <c r="Y5"/>
       <c r="Z5"/>
     </row>
-    <row r="6" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26">
       <c r="B6" s="18" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
@@ -1861,13 +1877,13 @@
       <c r="Y6"/>
       <c r="Z6"/>
     </row>
-    <row r="7" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26">
       <c r="B7" s="18" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
@@ -1892,9 +1908,9 @@
       <c r="Y7"/>
       <c r="Z7"/>
     </row>
-    <row r="8" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26">
       <c r="B8" s="18" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -1921,13 +1937,13 @@
       <c r="Y8"/>
       <c r="Z8"/>
     </row>
-    <row r="9" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26">
       <c r="B9" s="18" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
@@ -1952,19 +1968,19 @@
       <c r="Y9"/>
       <c r="Z9"/>
     </row>
-    <row r="10" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26">
       <c r="B10" s="18" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10"/>
@@ -1987,14 +2003,14 @@
       <c r="Y10"/>
       <c r="Z10"/>
     </row>
-    <row r="11" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26">
       <c r="B11" s="19" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="21" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -2018,7 +2034,7 @@
       <c r="Y11"/>
       <c r="Z11"/>
     </row>
-    <row r="12" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26">
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -2039,24 +2055,24 @@
       <c r="Y12"/>
       <c r="Z12"/>
     </row>
-    <row r="13" spans="1:26" ht="42" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="42">
       <c r="B13" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
@@ -2078,25 +2094,25 @@
       <c r="Y13"/>
       <c r="Z13"/>
     </row>
-    <row r="14" spans="1:26" ht="98" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="102">
       <c r="A14"/>
       <c r="B14" s="11" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
@@ -2118,24 +2134,24 @@
       <c r="Y14"/>
       <c r="Z14"/>
     </row>
-    <row r="15" spans="1:26" ht="70" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="88.5">
       <c r="B15" s="11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>45</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
@@ -2157,24 +2173,24 @@
       <c r="Y15"/>
       <c r="Z15"/>
     </row>
-    <row r="16" spans="1:26" ht="84" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="88.5">
       <c r="B16" s="11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
@@ -2196,24 +2212,24 @@
       <c r="Y16"/>
       <c r="Z16"/>
     </row>
-    <row r="17" spans="2:26" ht="98" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:26" ht="102">
       <c r="B17" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
@@ -2235,24 +2251,24 @@
       <c r="Y17"/>
       <c r="Z17"/>
     </row>
-    <row r="18" spans="2:26" ht="56" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:26" ht="73.5">
       <c r="B18" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
@@ -2274,24 +2290,24 @@
       <c r="Y18"/>
       <c r="Z18"/>
     </row>
-    <row r="19" spans="2:26" ht="84" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:26" ht="88.5">
       <c r="B19" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -2313,24 +2329,24 @@
       <c r="Y19"/>
       <c r="Z19"/>
     </row>
-    <row r="20" spans="2:26" ht="84" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:26" ht="102">
       <c r="B20" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
@@ -2352,7 +2368,7 @@
       <c r="Y20"/>
       <c r="Z20"/>
     </row>
-    <row r="21" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:26">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -2379,14 +2395,14 @@
       <c r="Y21"/>
       <c r="Z21"/>
     </row>
-    <row r="22" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:26">
       <c r="B22" s="19" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="7"/>
       <c r="E22" s="21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
@@ -2410,14 +2426,14 @@
       <c r="Y22"/>
       <c r="Z22"/>
     </row>
-    <row r="23" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:26">
       <c r="B23" s="19" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
@@ -2441,7 +2457,7 @@
       <c r="Y23"/>
       <c r="Z23"/>
     </row>
-    <row r="24" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:26">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2468,9 +2484,9 @@
       <c r="Y24"/>
       <c r="Z24"/>
     </row>
-    <row r="25" spans="2:26" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:26" s="4" customFormat="1">
       <c r="B25" s="22" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -2497,7 +2513,7 @@
       <c r="Y25"/>
       <c r="Z25"/>
     </row>
-    <row r="26" spans="2:26" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:26" s="4" customFormat="1">
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -2524,7 +2540,7 @@
       <c r="Y26"/>
       <c r="Z26"/>
     </row>
-    <row r="27" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:26">
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
@@ -2551,9 +2567,9 @@
       <c r="Y27"/>
       <c r="Z27"/>
     </row>
-    <row r="28" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:26">
       <c r="B28" s="24" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
@@ -2580,7 +2596,7 @@
       <c r="Y28"/>
       <c r="Z28"/>
     </row>
-    <row r="29" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:26">
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
@@ -2607,7 +2623,7 @@
       <c r="Y29"/>
       <c r="Z29"/>
     </row>
-    <row r="30" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:26">
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
@@ -2634,9 +2650,9 @@
       <c r="Y30"/>
       <c r="Z30"/>
     </row>
-    <row r="31" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:26">
       <c r="B31" s="25" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -2663,7 +2679,7 @@
       <c r="Y31"/>
       <c r="Z31"/>
     </row>
-    <row r="32" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:26">
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -2690,7 +2706,7 @@
       <c r="Y32"/>
       <c r="Z32"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7">
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
@@ -2698,9 +2714,9 @@
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7">
       <c r="B35" s="18" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
@@ -2708,7 +2724,7 @@
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7">
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
@@ -2716,7 +2732,7 @@
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7">
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
